--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.500933333333333</v>
+        <v>0.8077876666666667</v>
       </c>
       <c r="N2">
-        <v>7.5028</v>
+        <v>2.423363</v>
       </c>
       <c r="O2">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="P2">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="Q2">
-        <v>26.09534696044444</v>
+        <v>8.428653075665556</v>
       </c>
       <c r="R2">
-        <v>234.858122644</v>
+        <v>75.85787768099</v>
       </c>
       <c r="S2">
-        <v>0.1256571630011463</v>
+        <v>0.04760414333330192</v>
       </c>
       <c r="T2">
-        <v>0.1256571630011463</v>
+        <v>0.04760414333330194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>23.347821</v>
       </c>
       <c r="O3">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="P3">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="Q3">
         <v>81.20561520570332</v>
@@ -635,10 +635,10 @@
         <v>730.8505368513299</v>
       </c>
       <c r="S3">
-        <v>0.391030141962812</v>
+        <v>0.4586407473433722</v>
       </c>
       <c r="T3">
-        <v>0.3910301419628121</v>
+        <v>0.4586407473433723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.478761333333333</v>
+        <v>5.009781333333333</v>
       </c>
       <c r="N4">
-        <v>13.436284</v>
+        <v>15.029344</v>
       </c>
       <c r="O4">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="P4">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="Q4">
-        <v>46.73248558392444</v>
+        <v>52.2732774787911</v>
       </c>
       <c r="R4">
-        <v>420.5923702553199</v>
+        <v>470.4594973091199</v>
       </c>
       <c r="S4">
-        <v>0.2250313654525902</v>
+        <v>0.2952339562754326</v>
       </c>
       <c r="T4">
-        <v>0.2250313654525902</v>
+        <v>0.2952339562754326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.565521</v>
+        <v>2.878432333333333</v>
       </c>
       <c r="N5">
-        <v>13.696563</v>
+        <v>8.635297</v>
       </c>
       <c r="O5">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="P5">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="Q5">
-        <v>47.63775705744334</v>
+        <v>30.03426338453444</v>
       </c>
       <c r="R5">
-        <v>428.73981351699</v>
+        <v>270.30837046081</v>
       </c>
       <c r="S5">
-        <v>0.2293905274626099</v>
+        <v>0.1696303509270514</v>
       </c>
       <c r="T5">
-        <v>0.2293905274626099</v>
+        <v>0.1696303509270514</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.500933333333333</v>
+        <v>0.8077876666666667</v>
       </c>
       <c r="N6">
-        <v>7.5028</v>
+        <v>2.423363</v>
       </c>
       <c r="O6">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="P6">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="Q6">
-        <v>0.7763447271999999</v>
+        <v>0.250755063062</v>
       </c>
       <c r="R6">
-        <v>6.987102544799999</v>
+        <v>2.256795567558</v>
       </c>
       <c r="S6">
-        <v>0.003738339868740697</v>
+        <v>0.001416238141064078</v>
       </c>
       <c r="T6">
-        <v>0.003738339868740697</v>
+        <v>0.001416238141064078</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,10 +871,10 @@
         <v>23.347821</v>
       </c>
       <c r="O7">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="P7">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="Q7">
         <v>2.415892430154</v>
@@ -883,10 +883,10 @@
         <v>21.743031871386</v>
       </c>
       <c r="S7">
-        <v>0.01163326892527074</v>
+        <v>0.0136447055645138</v>
       </c>
       <c r="T7">
-        <v>0.01163326892527074</v>
+        <v>0.0136447055645138</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.478761333333333</v>
+        <v>5.009781333333333</v>
       </c>
       <c r="N8">
-        <v>13.436284</v>
+        <v>15.029344</v>
       </c>
       <c r="O8">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="P8">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="Q8">
-        <v>1.390306050616</v>
+        <v>1.555146341056</v>
       </c>
       <c r="R8">
-        <v>12.512754455544</v>
+        <v>13.996317069504</v>
       </c>
       <c r="S8">
-        <v>0.006694753447369345</v>
+        <v>0.008783302463548612</v>
       </c>
       <c r="T8">
-        <v>0.006694753447369346</v>
+        <v>0.008783302463548612</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.565521</v>
+        <v>2.878432333333333</v>
       </c>
       <c r="N9">
-        <v>13.696563</v>
+        <v>8.635297</v>
       </c>
       <c r="O9">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="P9">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="Q9">
-        <v>1.417238159862</v>
+        <v>0.8935287217779998</v>
       </c>
       <c r="R9">
-        <v>12.755143438758</v>
+        <v>8.041758496001998</v>
       </c>
       <c r="S9">
-        <v>0.006824439879460828</v>
+        <v>0.005046555951715121</v>
       </c>
       <c r="T9">
-        <v>0.006824439879460828</v>
+        <v>0.005046555951715121</v>
       </c>
     </row>
   </sheetData>
